--- a/resources/assets/uploadandtemplates/templates/gensen_details.xlsx
+++ b/resources/assets/uploadandtemplates/templates/gensen_details.xlsx
@@ -14,12 +14,12 @@
     <definedName name="_xlnm.Database">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'01nen'!$B$6:$X$53</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="287">
   <si>
     <t>計</t>
   </si>
@@ -2277,6 +2277,27 @@
     <t>非居住者親族数</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>株式会社 MICROBIT</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>06-6305-1251</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>父</t>
+  </si>
+  <si>
+    <t>母</t>
+  </si>
+  <si>
+    <t>○</t>
+  </si>
+  <si>
+    <t>大阪市淀川区西中島5丁目6-3-305号</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -2284,12 +2305,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
     <numFmt numFmtId="176" formatCode="#,##0.000;[Red]\-#,##0.000"/>
-    <numFmt numFmtId="181" formatCode="m/d"/>
-    <numFmt numFmtId="182" formatCode="0&quot;人&quot;"/>
-    <numFmt numFmtId="183" formatCode="00000000"/>
-    <numFmt numFmtId="184" formatCode="00000"/>
-    <numFmt numFmtId="188" formatCode="000000000000"/>
-    <numFmt numFmtId="189" formatCode="0\ \ 0000\ \ 0000\ \ 0000"/>
+    <numFmt numFmtId="177" formatCode="m/d"/>
+    <numFmt numFmtId="178" formatCode="0&quot;人&quot;"/>
+    <numFmt numFmtId="179" formatCode="00000000"/>
+    <numFmt numFmtId="180" formatCode="00000"/>
+    <numFmt numFmtId="181" formatCode="000000000000"/>
+    <numFmt numFmtId="182" formatCode="0\ \ 0000\ \ 0000\ \ 0000"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2842,7 +2863,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2872,7 +2893,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2941,7 +2962,7 @@
     <xf numFmtId="38" fontId="5" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2974,7 +2995,7 @@
     <xf numFmtId="38" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3169,7 +3190,7 @@
     <xf numFmtId="57" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3184,7 +3205,7 @@
     <xf numFmtId="38" fontId="5" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3238,7 +3259,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="5" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3286,7 +3307,7 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="5" fillId="9" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3340,217 +3361,201 @@
     <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="5" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="distributed"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" textRotation="255"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="distributed" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="57" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="38" fontId="5" fillId="6" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
+    <xf numFmtId="38" fontId="5" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
     <xf numFmtId="38" fontId="5" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3567,23 +3572,14 @@
       <alignment horizontal="distributed" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="189" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="182" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="180" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
@@ -3594,135 +3590,160 @@
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="6" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="5" fillId="6" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="6" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="38" fontId="5" fillId="6" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="6" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="distributed" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="38" fontId="3" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="distributed" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" textRotation="255"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" justifyLastLine="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="distributed" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="distributed"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -4472,7 +4493,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
@@ -4526,9 +4547,7 @@
   </sheetPr>
   <dimension ref="A1:AS96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" customHeight="1" outlineLevelCol="1"/>
   <cols>
@@ -4628,13 +4647,13 @@
       <c r="B8" s="105" t="s">
         <v>269</v>
       </c>
-      <c r="K8" s="282" t="s">
+      <c r="K8" s="226" t="s">
         <v>53</v>
       </c>
-      <c r="L8" s="282"/>
-      <c r="M8" s="253"/>
-      <c r="N8" s="253"/>
-      <c r="O8" s="271" t="s">
+      <c r="L8" s="226"/>
+      <c r="M8" s="247"/>
+      <c r="N8" s="247"/>
+      <c r="O8" s="202" t="s">
         <v>128</v>
       </c>
       <c r="X8" s="179" t="s">
@@ -4645,30 +4664,32 @@
       </c>
     </row>
     <row r="9" spans="1:42" ht="12.75" customHeight="1">
-      <c r="B9" s="285" t="s">
+      <c r="B9" s="223" t="s">
         <v>51</v>
       </c>
-      <c r="C9" s="265" t="s">
+      <c r="C9" s="256" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="266"/>
-      <c r="E9" s="264"/>
-      <c r="F9" s="264"/>
-      <c r="G9" s="264"/>
-      <c r="H9" s="264"/>
-      <c r="I9" s="264"/>
-      <c r="J9" s="264"/>
-      <c r="K9" s="283" t="s">
+      <c r="D9" s="257"/>
+      <c r="E9" s="221" t="s">
+        <v>286</v>
+      </c>
+      <c r="F9" s="221"/>
+      <c r="G9" s="221"/>
+      <c r="H9" s="221"/>
+      <c r="I9" s="221"/>
+      <c r="J9" s="221"/>
+      <c r="K9" s="227" t="s">
         <v>183</v>
       </c>
-      <c r="L9" s="283"/>
-      <c r="M9" s="254"/>
-      <c r="N9" s="254"/>
-      <c r="O9" s="271"/>
-      <c r="S9" s="267" t="s">
+      <c r="L9" s="227"/>
+      <c r="M9" s="248"/>
+      <c r="N9" s="248"/>
+      <c r="O9" s="202"/>
+      <c r="S9" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="T9" s="268"/>
+      <c r="T9" s="186"/>
       <c r="U9" s="15" t="s">
         <v>55</v>
       </c>
@@ -4717,25 +4738,27 @@
       <c r="AP9" s="25"/>
     </row>
     <row r="10" spans="1:42" ht="12.75" customHeight="1">
-      <c r="B10" s="285"/>
-      <c r="C10" s="257" t="s">
+      <c r="B10" s="223"/>
+      <c r="C10" s="251" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="258"/>
-      <c r="E10" s="264"/>
-      <c r="F10" s="264"/>
-      <c r="G10" s="264"/>
-      <c r="H10" s="264"/>
-      <c r="I10" s="264"/>
-      <c r="J10" s="264"/>
-      <c r="K10" s="205" t="s">
+      <c r="D10" s="252"/>
+      <c r="E10" s="221" t="s">
+        <v>281</v>
+      </c>
+      <c r="F10" s="221"/>
+      <c r="G10" s="221"/>
+      <c r="H10" s="221"/>
+      <c r="I10" s="221"/>
+      <c r="J10" s="221"/>
+      <c r="K10" s="224" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="205"/>
-      <c r="M10" s="261"/>
-      <c r="N10" s="263"/>
-      <c r="O10" s="271"/>
-      <c r="S10" s="226" t="s">
+      <c r="L10" s="224"/>
+      <c r="M10" s="238"/>
+      <c r="N10" s="239"/>
+      <c r="O10" s="202"/>
+      <c r="S10" s="287" t="s">
         <v>61</v>
       </c>
       <c r="T10" s="16">
@@ -4781,26 +4804,28 @@
       <c r="AP10" s="25"/>
     </row>
     <row r="11" spans="1:42" ht="12.75" customHeight="1">
-      <c r="B11" s="285"/>
-      <c r="C11" s="219" t="s">
+      <c r="B11" s="223"/>
+      <c r="C11" s="207" t="s">
         <v>184</v>
       </c>
-      <c r="D11" s="287"/>
-      <c r="E11" s="259"/>
-      <c r="F11" s="259"/>
-      <c r="G11" s="259"/>
+      <c r="D11" s="225"/>
+      <c r="E11" s="253">
+        <v>6120002067788</v>
+      </c>
+      <c r="F11" s="253"/>
+      <c r="G11" s="253"/>
       <c r="H11" s="109"/>
       <c r="I11" s="57"/>
-      <c r="K11" s="282" t="s">
+      <c r="K11" s="226" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="282"/>
+      <c r="L11" s="226"/>
       <c r="M11" s="103"/>
       <c r="N11" s="104"/>
       <c r="O11" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="S11" s="227"/>
+      <c r="S11" s="288"/>
       <c r="T11" s="16">
         <v>2</v>
       </c>
@@ -4855,24 +4880,26 @@
       <c r="AP11" s="25"/>
     </row>
     <row r="12" spans="1:42" ht="12.75" customHeight="1">
-      <c r="B12" s="285"/>
-      <c r="C12" s="205" t="s">
+      <c r="B12" s="223"/>
+      <c r="C12" s="224" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="205"/>
-      <c r="E12" s="261"/>
-      <c r="F12" s="262"/>
-      <c r="G12" s="263"/>
+      <c r="D12" s="224"/>
+      <c r="E12" s="238" t="s">
+        <v>282</v>
+      </c>
+      <c r="F12" s="255"/>
+      <c r="G12" s="239"/>
       <c r="H12" s="57"/>
       <c r="I12" s="57"/>
-      <c r="K12" s="205" t="s">
+      <c r="K12" s="224" t="s">
         <v>50</v>
       </c>
-      <c r="L12" s="205"/>
+      <c r="L12" s="224"/>
       <c r="M12" s="103"/>
       <c r="N12" s="104"/>
       <c r="O12" s="53"/>
-      <c r="S12" s="227"/>
+      <c r="S12" s="288"/>
       <c r="T12" s="16">
         <v>3</v>
       </c>
@@ -4918,27 +4945,29 @@
       <c r="AP12" s="25"/>
     </row>
     <row r="13" spans="1:42" ht="12.75" customHeight="1">
-      <c r="B13" s="285"/>
-      <c r="C13" s="255" t="s">
+      <c r="B13" s="223"/>
+      <c r="C13" s="249" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="256"/>
-      <c r="E13" s="260"/>
-      <c r="F13" s="260"/>
-      <c r="G13" s="260"/>
+      <c r="D13" s="250"/>
+      <c r="E13" s="254"/>
+      <c r="F13" s="254"/>
+      <c r="G13" s="254"/>
       <c r="H13" s="63" t="s">
         <v>67</v>
       </c>
-      <c r="I13" s="284"/>
-      <c r="J13" s="284"/>
-      <c r="K13" s="283" t="s">
+      <c r="I13" s="222">
+        <v>600338</v>
+      </c>
+      <c r="J13" s="222"/>
+      <c r="K13" s="227" t="s">
         <v>7</v>
       </c>
-      <c r="L13" s="283"/>
-      <c r="M13" s="269"/>
-      <c r="N13" s="269"/>
-      <c r="O13" s="270"/>
-      <c r="S13" s="227"/>
+      <c r="L13" s="227"/>
+      <c r="M13" s="236"/>
+      <c r="N13" s="236"/>
+      <c r="O13" s="237"/>
+      <c r="S13" s="288"/>
       <c r="T13" s="16">
         <v>4</v>
       </c>
@@ -4989,7 +5018,7 @@
     <row r="14" spans="1:42" ht="12.75" customHeight="1">
       <c r="P14" s="109"/>
       <c r="Q14" s="138"/>
-      <c r="S14" s="227"/>
+      <c r="S14" s="288"/>
       <c r="T14" s="16">
         <v>5</v>
       </c>
@@ -5042,16 +5071,16 @@
       <c r="AP14" s="25"/>
     </row>
     <row r="15" spans="1:42" ht="12.75" customHeight="1">
-      <c r="B15" s="221"/>
-      <c r="C15" s="222"/>
-      <c r="D15" s="286" t="s">
+      <c r="B15" s="187"/>
+      <c r="C15" s="188"/>
+      <c r="D15" s="189" t="s">
         <v>147</v>
       </c>
-      <c r="E15" s="202"/>
-      <c r="F15" s="267" t="s">
+      <c r="E15" s="190"/>
+      <c r="F15" s="185" t="s">
         <v>185</v>
       </c>
-      <c r="G15" s="268"/>
+      <c r="G15" s="186"/>
       <c r="H15" s="16" t="s">
         <v>183</v>
       </c>
@@ -5067,10 +5096,10 @@
       <c r="L15" s="162" t="s">
         <v>223</v>
       </c>
-      <c r="M15" s="201" t="s">
+      <c r="M15" s="258" t="s">
         <v>7</v>
       </c>
-      <c r="N15" s="202"/>
+      <c r="N15" s="190"/>
       <c r="O15" s="44" t="s">
         <v>117</v>
       </c>
@@ -5080,7 +5109,7 @@
       <c r="Q15" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="S15" s="227"/>
+      <c r="S15" s="288"/>
       <c r="T15" s="16">
         <v>6</v>
       </c>
@@ -5120,10 +5149,10 @@
       <c r="AP15" s="25"/>
     </row>
     <row r="16" spans="1:42" ht="12.75" customHeight="1">
-      <c r="B16" s="219" t="s">
+      <c r="B16" s="207" t="s">
         <v>234</v>
       </c>
-      <c r="C16" s="220"/>
+      <c r="C16" s="208"/>
       <c r="D16" s="47"/>
       <c r="E16" s="26"/>
       <c r="F16" s="47"/>
@@ -5140,8 +5169,8 @@
       <c r="L16" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="M16" s="189"/>
-      <c r="N16" s="190"/>
+      <c r="M16" s="228"/>
+      <c r="N16" s="229"/>
       <c r="O16" s="50">
         <f>+P40</f>
         <v>0</v>
@@ -5153,7 +5182,7 @@
         <f>IF(J16="","",IF(I35&gt;0,"対象",IF(H34="A",IF(P40&lt;380000,"対象","対象外"),"対象外")))</f>
         <v/>
       </c>
-      <c r="S16" s="227"/>
+      <c r="S16" s="288"/>
       <c r="T16" s="16">
         <v>7</v>
       </c>
@@ -5192,7 +5221,7 @@
       <c r="AP16" s="25"/>
     </row>
     <row r="17" spans="2:43" ht="12.75" customHeight="1">
-      <c r="B17" s="291" t="s">
+      <c r="B17" s="200" t="s">
         <v>235</v>
       </c>
       <c r="C17" s="37" t="s">
@@ -5204,7 +5233,7 @@
       <c r="G17" s="26"/>
       <c r="H17" s="132"/>
       <c r="I17" s="48" t="s">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="J17" s="53"/>
       <c r="K17" s="49" t="str">
@@ -5214,17 +5243,17 @@
       <c r="L17" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="M17" s="189"/>
-      <c r="N17" s="190"/>
+      <c r="M17" s="228"/>
+      <c r="N17" s="229"/>
       <c r="O17" s="29"/>
       <c r="P17" s="48" t="s">
-        <v>16</v>
+        <v>285</v>
       </c>
       <c r="Q17" s="140" t="str">
         <f>IF(J17="","",IF(J17&gt;=$AE$21,"住民税事項へ",IF(O17&gt;380000,"対象外","対象")))</f>
         <v/>
       </c>
-      <c r="S17" s="227"/>
+      <c r="S17" s="288"/>
       <c r="T17" s="16">
         <v>8</v>
       </c>
@@ -5272,7 +5301,7 @@
       <c r="AP17" s="25"/>
     </row>
     <row r="18" spans="2:43" ht="12.75" customHeight="1">
-      <c r="B18" s="292"/>
+      <c r="B18" s="201"/>
       <c r="C18" s="37" t="s">
         <v>145</v>
       </c>
@@ -5282,7 +5311,7 @@
       <c r="G18" s="26"/>
       <c r="H18" s="132"/>
       <c r="I18" s="48" t="s">
-        <v>16</v>
+        <v>284</v>
       </c>
       <c r="J18" s="53"/>
       <c r="K18" s="49" t="str">
@@ -5292,17 +5321,17 @@
       <c r="L18" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="M18" s="189"/>
-      <c r="N18" s="190"/>
+      <c r="M18" s="228"/>
+      <c r="N18" s="229"/>
       <c r="O18" s="29"/>
       <c r="P18" s="48" t="s">
-        <v>16</v>
+        <v>285</v>
       </c>
       <c r="Q18" s="140" t="str">
         <f>IF(J18="","",IF(J18&gt;=$AE$21,"住民税事項へ",IF(O18&gt;380000,"対象外","対象")))</f>
         <v/>
       </c>
-      <c r="S18" s="227"/>
+      <c r="S18" s="288"/>
       <c r="T18" s="16">
         <v>9</v>
       </c>
@@ -5362,7 +5391,7 @@
       <c r="AP18" s="25"/>
     </row>
     <row r="19" spans="2:43" ht="12.75" customHeight="1">
-      <c r="B19" s="292"/>
+      <c r="B19" s="201"/>
       <c r="C19" s="37" t="s">
         <v>146</v>
       </c>
@@ -5382,8 +5411,8 @@
       <c r="L19" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="M19" s="189"/>
-      <c r="N19" s="190"/>
+      <c r="M19" s="228"/>
+      <c r="N19" s="229"/>
       <c r="O19" s="29"/>
       <c r="P19" s="48" t="s">
         <v>16</v>
@@ -5392,7 +5421,7 @@
         <f>IF(J19="","",IF(J19&gt;=$AE$21,"住民税事項へ",IF(O19&gt;380000,"対象外","対象")))</f>
         <v/>
       </c>
-      <c r="S19" s="227"/>
+      <c r="S19" s="288"/>
       <c r="T19" s="16">
         <v>10</v>
       </c>
@@ -5469,8 +5498,8 @@
       <c r="L20" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="M20" s="189"/>
-      <c r="N20" s="190"/>
+      <c r="M20" s="228"/>
+      <c r="N20" s="229"/>
       <c r="O20" s="29"/>
       <c r="P20" s="48" t="s">
         <v>16</v>
@@ -5479,7 +5508,7 @@
         <f>IF(J20="","",IF(J20&gt;=$AE$21,"住民税事項へ",IF(O20&gt;380000,"対象外","対象")))</f>
         <v/>
       </c>
-      <c r="S20" s="227"/>
+      <c r="S20" s="288"/>
       <c r="T20" s="16">
         <v>11</v>
       </c>
@@ -5552,7 +5581,7 @@
       <c r="O21" s="111"/>
       <c r="P21" s="111"/>
       <c r="Q21" s="139"/>
-      <c r="S21" s="227"/>
+      <c r="S21" s="288"/>
       <c r="T21" s="16">
         <v>12</v>
       </c>
@@ -5604,18 +5633,18 @@
       <c r="AQ21" s="109"/>
     </row>
     <row r="22" spans="2:43" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B22" s="293" t="s">
+      <c r="B22" s="212" t="s">
         <v>241</v>
       </c>
-      <c r="C22" s="294"/>
-      <c r="D22" s="286" t="s">
+      <c r="C22" s="213"/>
+      <c r="D22" s="189" t="s">
         <v>147</v>
       </c>
-      <c r="E22" s="202"/>
-      <c r="F22" s="267" t="s">
+      <c r="E22" s="190"/>
+      <c r="F22" s="185" t="s">
         <v>185</v>
       </c>
-      <c r="G22" s="268"/>
+      <c r="G22" s="186"/>
       <c r="H22" s="16" t="s">
         <v>183</v>
       </c>
@@ -5631,10 +5660,10 @@
       <c r="L22" s="162" t="s">
         <v>244</v>
       </c>
-      <c r="M22" s="201" t="s">
+      <c r="M22" s="258" t="s">
         <v>7</v>
       </c>
-      <c r="N22" s="202"/>
+      <c r="N22" s="190"/>
       <c r="O22" s="44" t="s">
         <v>117</v>
       </c>
@@ -5644,7 +5673,7 @@
       <c r="Q22" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="S22" s="227"/>
+      <c r="S22" s="288"/>
       <c r="T22" s="59"/>
       <c r="U22" s="60"/>
       <c r="V22" s="29"/>
@@ -5673,7 +5702,7 @@
       <c r="AK22" s="2"/>
     </row>
     <row r="23" spans="2:43" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B23" s="291" t="s">
+      <c r="B23" s="200" t="s">
         <v>201</v>
       </c>
       <c r="C23" s="65" t="s">
@@ -5695,8 +5724,8 @@
       <c r="L23" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="M23" s="189"/>
-      <c r="N23" s="190"/>
+      <c r="M23" s="228"/>
+      <c r="N23" s="229"/>
       <c r="O23" s="29"/>
       <c r="P23" s="48" t="s">
         <v>16</v>
@@ -5705,11 +5734,11 @@
         <f>IF(J23="","",IF(J23&lt;$AE$21,"控除対象欄へ",IF(O23&gt;380000,"対象外","対象")))</f>
         <v/>
       </c>
-      <c r="S23" s="228"/>
-      <c r="T23" s="208" t="s">
+      <c r="S23" s="289"/>
+      <c r="T23" s="277" t="s">
         <v>1</v>
       </c>
-      <c r="U23" s="209"/>
+      <c r="U23" s="278"/>
       <c r="V23" s="61">
         <f>SUM(V10:V22)</f>
         <v>0</v>
@@ -5724,11 +5753,11 @@
       </c>
       <c r="Y23" s="109"/>
       <c r="Z23" s="109"/>
-      <c r="AA23" s="223" t="s">
+      <c r="AA23" s="285" t="s">
         <v>28</v>
       </c>
-      <c r="AB23" s="224"/>
-      <c r="AC23" s="225"/>
+      <c r="AB23" s="272"/>
+      <c r="AC23" s="286"/>
       <c r="AD23" s="169">
         <f>SUM(AD11:AD20)</f>
         <v>0</v>
@@ -5757,7 +5786,7 @@
       </c>
     </row>
     <row r="24" spans="2:43" ht="12.75" customHeight="1">
-      <c r="B24" s="292"/>
+      <c r="B24" s="201"/>
       <c r="C24" s="37" t="s">
         <v>145</v>
       </c>
@@ -5777,8 +5806,8 @@
       <c r="L24" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="M24" s="189"/>
-      <c r="N24" s="190"/>
+      <c r="M24" s="228"/>
+      <c r="N24" s="229"/>
       <c r="O24" s="29"/>
       <c r="P24" s="48" t="s">
         <v>16</v>
@@ -5787,7 +5816,7 @@
         <f>IF(J24="","",IF(J24&lt;$AE$21,"控除対象欄へ",IF(O24&gt;380000,"対象外","対象")))</f>
         <v/>
       </c>
-      <c r="S24" s="226" t="s">
+      <c r="S24" s="287" t="s">
         <v>76</v>
       </c>
       <c r="T24" s="63" t="s">
@@ -5823,7 +5852,7 @@
       </c>
     </row>
     <row r="25" spans="2:43" ht="12.75" customHeight="1">
-      <c r="B25" s="292"/>
+      <c r="B25" s="201"/>
       <c r="C25" s="37" t="s">
         <v>181</v>
       </c>
@@ -5843,8 +5872,8 @@
       <c r="L25" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="M25" s="189"/>
-      <c r="N25" s="190"/>
+      <c r="M25" s="228"/>
+      <c r="N25" s="229"/>
       <c r="O25" s="29"/>
       <c r="P25" s="48" t="s">
         <v>16</v>
@@ -5853,7 +5882,7 @@
         <f>IF(J25="","",IF(J25&lt;$AE$21,"控除対象欄へ",IF(O25&gt;380000,"対象外","対象")))</f>
         <v/>
       </c>
-      <c r="S25" s="227"/>
+      <c r="S25" s="288"/>
       <c r="T25" s="63" t="s">
         <v>78</v>
       </c>
@@ -5930,8 +5959,8 @@
       <c r="L26" s="148" t="s">
         <v>16</v>
       </c>
-      <c r="M26" s="189"/>
-      <c r="N26" s="190"/>
+      <c r="M26" s="228"/>
+      <c r="N26" s="229"/>
       <c r="O26" s="29"/>
       <c r="P26" s="148" t="s">
         <v>16</v>
@@ -5940,7 +5969,7 @@
         <f>IF(J26="","",IF(J26&lt;$AE$21,"控除対象欄へ",IF(O26&gt;380000,"対象外","対象")))</f>
         <v/>
       </c>
-      <c r="S26" s="227"/>
+      <c r="S26" s="288"/>
       <c r="T26" s="33"/>
       <c r="U26" s="28"/>
       <c r="V26" s="29"/>
@@ -5973,7 +6002,7 @@
     </row>
     <row r="27" spans="2:43" ht="12.75" customHeight="1">
       <c r="Q27" s="139"/>
-      <c r="S27" s="227"/>
+      <c r="S27" s="288"/>
       <c r="T27" s="33"/>
       <c r="U27" s="14"/>
       <c r="V27" s="29"/>
@@ -6031,11 +6060,11 @@
       <c r="M28" s="13"/>
       <c r="Q28" s="20"/>
       <c r="R28" s="58"/>
-      <c r="S28" s="228"/>
-      <c r="T28" s="208" t="s">
+      <c r="S28" s="289"/>
+      <c r="T28" s="277" t="s">
         <v>1</v>
       </c>
-      <c r="U28" s="209"/>
+      <c r="U28" s="278"/>
       <c r="V28" s="41">
         <f>SUM(V24:V27)</f>
         <v>0</v>
@@ -6096,33 +6125,33 @@
       <c r="E29" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="185" t="s">
+      <c r="G29" s="306" t="s">
         <v>265</v>
       </c>
-      <c r="H29" s="186"/>
-      <c r="I29" s="191" t="s">
+      <c r="H29" s="307"/>
+      <c r="I29" s="235" t="s">
         <v>88</v>
       </c>
-      <c r="J29" s="191"/>
-      <c r="L29" s="185" t="s">
+      <c r="J29" s="235"/>
+      <c r="L29" s="306" t="s">
         <v>266</v>
       </c>
-      <c r="M29" s="186"/>
+      <c r="M29" s="307"/>
       <c r="N29" s="69" t="s">
         <v>86</v>
       </c>
       <c r="O29" s="66" t="s">
         <v>87</v>
       </c>
-      <c r="P29" s="191" t="s">
+      <c r="P29" s="235" t="s">
         <v>88</v>
       </c>
-      <c r="Q29" s="191"/>
-      <c r="S29" s="208" t="s">
+      <c r="Q29" s="235"/>
+      <c r="S29" s="277" t="s">
         <v>79</v>
       </c>
-      <c r="T29" s="229"/>
-      <c r="U29" s="209"/>
+      <c r="T29" s="279"/>
+      <c r="U29" s="278"/>
       <c r="V29" s="61">
         <f>+V23+V28</f>
         <v>0</v>
@@ -6183,31 +6212,31 @@
       <c r="E30" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="G30" s="219" t="s">
+      <c r="G30" s="207" t="s">
         <v>89</v>
       </c>
-      <c r="H30" s="220"/>
-      <c r="I30" s="192">
+      <c r="H30" s="208"/>
+      <c r="I30" s="198">
         <f>+W34</f>
         <v>0</v>
       </c>
-      <c r="J30" s="192"/>
-      <c r="L30" s="219" t="s">
+      <c r="J30" s="198"/>
+      <c r="L30" s="207" t="s">
         <v>89</v>
       </c>
-      <c r="M30" s="220"/>
+      <c r="M30" s="208"/>
       <c r="N30" s="131"/>
       <c r="O30" s="176"/>
-      <c r="P30" s="192">
+      <c r="P30" s="198">
         <f>+IF($N$30="",0,$AN$21)</f>
         <v>0</v>
       </c>
-      <c r="Q30" s="192"/>
-      <c r="S30" s="208" t="s">
+      <c r="Q30" s="198"/>
+      <c r="S30" s="277" t="s">
         <v>112</v>
       </c>
-      <c r="T30" s="229"/>
-      <c r="U30" s="209"/>
+      <c r="T30" s="279"/>
+      <c r="U30" s="278"/>
       <c r="V30" s="29"/>
       <c r="W30" s="99"/>
       <c r="X30" s="29"/>
@@ -6244,23 +6273,23 @@
         <v>16</v>
       </c>
       <c r="F31" s="20"/>
-      <c r="G31" s="187" t="s">
+      <c r="G31" s="308" t="s">
         <v>258</v>
       </c>
-      <c r="H31" s="188"/>
-      <c r="I31" s="189"/>
-      <c r="J31" s="190"/>
-      <c r="L31" s="219" t="s">
+      <c r="H31" s="309"/>
+      <c r="I31" s="228"/>
+      <c r="J31" s="229"/>
+      <c r="L31" s="207" t="s">
         <v>91</v>
       </c>
-      <c r="M31" s="220"/>
+      <c r="M31" s="208"/>
       <c r="N31" s="131"/>
       <c r="O31" s="29"/>
-      <c r="P31" s="192">
+      <c r="P31" s="198">
         <f>(N31-O31)</f>
         <v>0</v>
       </c>
-      <c r="Q31" s="192"/>
+      <c r="Q31" s="198"/>
       <c r="Z31" s="109"/>
       <c r="AA31" s="37" t="s">
         <v>24</v>
@@ -6291,19 +6320,19 @@
       <c r="C32" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="193"/>
-      <c r="E32" s="193"/>
+      <c r="D32" s="220"/>
+      <c r="E32" s="220"/>
       <c r="F32" s="20"/>
-      <c r="G32" s="304" t="s">
+      <c r="G32" s="205" t="s">
         <v>257</v>
       </c>
-      <c r="H32" s="279"/>
-      <c r="I32" s="230">
+      <c r="H32" s="206"/>
+      <c r="I32" s="259">
         <f>IF(SUM(I30:J31)&lt;0,0,SUM(I30:J31))</f>
         <v>0</v>
       </c>
-      <c r="J32" s="230"/>
-      <c r="L32" s="217" t="s">
+      <c r="J32" s="259"/>
+      <c r="L32" s="292" t="s">
         <v>92</v>
       </c>
       <c r="M32" s="44" t="s">
@@ -6314,15 +6343,15 @@
         <f>+MAX(AN49,AN55)</f>
         <v>0</v>
       </c>
-      <c r="P32" s="192">
+      <c r="P32" s="198">
         <f>+(MAX(N32-O32,0))</f>
         <v>0</v>
       </c>
-      <c r="Q32" s="192"/>
-      <c r="S32" s="238"/>
-      <c r="T32" s="238"/>
-      <c r="U32" s="238"/>
-      <c r="V32" s="238"/>
+      <c r="Q32" s="198"/>
+      <c r="S32" s="284"/>
+      <c r="T32" s="284"/>
+      <c r="U32" s="284"/>
+      <c r="V32" s="284"/>
       <c r="W32" s="69" t="s">
         <v>29</v>
       </c>
@@ -6374,26 +6403,26 @@
       <c r="C33" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D33" s="193"/>
-      <c r="E33" s="193"/>
+      <c r="D33" s="220"/>
+      <c r="E33" s="220"/>
       <c r="F33" s="20"/>
-      <c r="L33" s="218"/>
+      <c r="L33" s="293"/>
       <c r="M33" s="37" t="s">
         <v>94</v>
       </c>
       <c r="N33" s="131"/>
       <c r="O33" s="29"/>
-      <c r="P33" s="192">
+      <c r="P33" s="198">
         <f>+(N33-O33)</f>
         <v>0</v>
       </c>
-      <c r="Q33" s="192"/>
-      <c r="S33" s="239" t="s">
+      <c r="Q33" s="198"/>
+      <c r="S33" s="261" t="s">
         <v>118</v>
       </c>
-      <c r="T33" s="239"/>
-      <c r="U33" s="239"/>
-      <c r="V33" s="239"/>
+      <c r="T33" s="261"/>
+      <c r="U33" s="261"/>
+      <c r="V33" s="261"/>
       <c r="W33" s="71">
         <f>+V29</f>
         <v>0</v>
@@ -6441,42 +6470,42 @@
       <c r="C34" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="193"/>
-      <c r="E34" s="193"/>
+      <c r="D34" s="220"/>
+      <c r="E34" s="220"/>
       <c r="F34" s="20"/>
-      <c r="G34" s="194" t="s">
+      <c r="G34" s="299" t="s">
         <v>248</v>
       </c>
-      <c r="H34" s="196" t="str">
+      <c r="H34" s="301" t="str">
         <f>IF(AM39=0,"",AM39)</f>
         <v/>
       </c>
-      <c r="I34" s="208" t="s">
+      <c r="I34" s="277" t="s">
         <v>38</v>
       </c>
-      <c r="J34" s="209"/>
-      <c r="L34" s="219" t="s">
+      <c r="J34" s="278"/>
+      <c r="L34" s="207" t="s">
         <v>95</v>
       </c>
-      <c r="M34" s="220"/>
+      <c r="M34" s="208"/>
       <c r="N34" s="131"/>
       <c r="O34" s="29"/>
-      <c r="P34" s="192">
+      <c r="P34" s="198">
         <f>+(N34-O34)</f>
         <v>0</v>
       </c>
-      <c r="Q34" s="192"/>
-      <c r="S34" s="240" t="s">
+      <c r="Q34" s="198"/>
+      <c r="S34" s="260" t="s">
         <v>21</v>
       </c>
-      <c r="T34" s="240"/>
-      <c r="U34" s="240"/>
-      <c r="V34" s="240"/>
+      <c r="T34" s="260"/>
+      <c r="U34" s="260"/>
+      <c r="V34" s="260"/>
       <c r="W34" s="72">
         <f>IF(W33=0,0,IF(O8="甲欄",AN14,0))</f>
         <v>0</v>
       </c>
-      <c r="X34" s="235" t="str">
+      <c r="X34" s="281" t="str">
         <f>IF(OR(O8="乙欄",O8="丙欄",O8="年調対象外"),"年調できません",IF(W33&gt;20000000,"年調できません"," "))</f>
         <v xml:space="preserve"> </v>
       </c>
@@ -6521,40 +6550,40 @@
       <c r="C35" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D35" s="193"/>
-      <c r="E35" s="193"/>
+      <c r="D35" s="220"/>
+      <c r="E35" s="220"/>
       <c r="F35" s="20"/>
-      <c r="G35" s="195"/>
-      <c r="H35" s="197"/>
-      <c r="I35" s="210">
+      <c r="G35" s="300"/>
+      <c r="H35" s="302"/>
+      <c r="I35" s="294">
         <f>+AM36</f>
         <v>0</v>
       </c>
-      <c r="J35" s="211"/>
-      <c r="L35" s="219" t="s">
+      <c r="J35" s="295"/>
+      <c r="L35" s="207" t="s">
         <v>96</v>
       </c>
-      <c r="M35" s="220"/>
+      <c r="M35" s="208"/>
       <c r="N35" s="131"/>
       <c r="O35" s="29"/>
-      <c r="P35" s="192">
+      <c r="P35" s="198">
         <f>+(N35-O35)</f>
         <v>0</v>
       </c>
-      <c r="Q35" s="192"/>
-      <c r="S35" s="241" t="s">
+      <c r="Q35" s="198"/>
+      <c r="S35" s="263" t="s">
         <v>83</v>
       </c>
-      <c r="T35" s="242"/>
-      <c r="U35" s="245" t="s">
+      <c r="T35" s="264"/>
+      <c r="U35" s="267" t="s">
         <v>84</v>
       </c>
-      <c r="V35" s="245"/>
+      <c r="V35" s="267"/>
       <c r="W35" s="74">
         <f>+W29</f>
         <v>0</v>
       </c>
-      <c r="X35" s="236"/>
+      <c r="X35" s="282"/>
       <c r="AB35" s="75" t="e">
         <f>LOOKUP(O12,AC35:AC38,AD35:AD38)</f>
         <v>#N/A</v>
@@ -6606,41 +6635,41 @@
       <c r="E36" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G36" s="198" t="s">
+      <c r="G36" s="303" t="s">
         <v>249</v>
       </c>
-      <c r="H36" s="200" t="str">
+      <c r="H36" s="305" t="str">
         <f>IF(AM40=0,"",AM40)</f>
         <v/>
       </c>
-      <c r="I36" s="208" t="s">
+      <c r="I36" s="277" t="s">
         <v>33</v>
       </c>
-      <c r="J36" s="209"/>
+      <c r="J36" s="278"/>
       <c r="K36" s="6"/>
-      <c r="L36" s="219" t="s">
+      <c r="L36" s="207" t="s">
         <v>97</v>
       </c>
-      <c r="M36" s="220"/>
+      <c r="M36" s="208"/>
       <c r="N36" s="131"/>
       <c r="O36" s="29"/>
-      <c r="P36" s="192">
+      <c r="P36" s="198">
         <f>MAX(0,INT((N36-O36)/2))</f>
         <v>0</v>
       </c>
-      <c r="Q36" s="192"/>
+      <c r="Q36" s="198"/>
       <c r="R36" s="6"/>
-      <c r="S36" s="241"/>
-      <c r="T36" s="242"/>
-      <c r="U36" s="239" t="s">
+      <c r="S36" s="263"/>
+      <c r="T36" s="264"/>
+      <c r="U36" s="261" t="s">
         <v>85</v>
       </c>
-      <c r="V36" s="239"/>
+      <c r="V36" s="261"/>
       <c r="W36" s="72">
         <f>+P49+P50</f>
         <v>0</v>
       </c>
-      <c r="X36" s="236"/>
+      <c r="X36" s="282"/>
       <c r="Y36" s="6"/>
       <c r="Z36" s="6"/>
       <c r="AA36" s="6"/>
@@ -6703,15 +6732,15 @@
       <c r="E37" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="G37" s="199"/>
-      <c r="H37" s="197"/>
-      <c r="I37" s="210">
+      <c r="G37" s="304"/>
+      <c r="H37" s="302"/>
+      <c r="I37" s="294">
         <f>+AM34</f>
         <v>0</v>
       </c>
-      <c r="J37" s="211"/>
+      <c r="J37" s="295"/>
       <c r="K37" s="6"/>
-      <c r="L37" s="280" t="s">
+      <c r="L37" s="230" t="s">
         <v>98</v>
       </c>
       <c r="M37" s="37" t="s">
@@ -6719,23 +6748,23 @@
       </c>
       <c r="N37" s="131"/>
       <c r="O37" s="29"/>
-      <c r="P37" s="192">
+      <c r="P37" s="198">
         <f>+(N37-O37)</f>
         <v>0</v>
       </c>
-      <c r="Q37" s="192"/>
+      <c r="Q37" s="198"/>
       <c r="R37" s="6"/>
-      <c r="S37" s="243"/>
-      <c r="T37" s="244"/>
-      <c r="U37" s="239" t="s">
+      <c r="S37" s="265"/>
+      <c r="T37" s="266"/>
+      <c r="U37" s="261" t="s">
         <v>150</v>
       </c>
-      <c r="V37" s="239"/>
+      <c r="V37" s="261"/>
       <c r="W37" s="72">
         <f>P51</f>
         <v>0</v>
       </c>
-      <c r="X37" s="236"/>
+      <c r="X37" s="282"/>
       <c r="Y37" s="6"/>
       <c r="Z37" s="6"/>
       <c r="AA37" s="6"/>
@@ -6778,29 +6807,29 @@
     <row r="38" spans="1:45" s="20" customFormat="1" ht="12.75" customHeight="1">
       <c r="A38" s="6"/>
       <c r="K38" s="6"/>
-      <c r="L38" s="281"/>
+      <c r="L38" s="231"/>
       <c r="M38" s="37" t="s">
         <v>101</v>
       </c>
       <c r="N38" s="131"/>
       <c r="O38" s="29"/>
-      <c r="P38" s="192">
+      <c r="P38" s="198">
         <f>INT((((N38-O38)+(N39-O39))/2))</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="192"/>
+      <c r="Q38" s="198"/>
       <c r="R38" s="6"/>
-      <c r="S38" s="239" t="s">
+      <c r="S38" s="261" t="s">
         <v>37</v>
       </c>
-      <c r="T38" s="239"/>
-      <c r="U38" s="239"/>
-      <c r="V38" s="239"/>
+      <c r="T38" s="261"/>
+      <c r="U38" s="261"/>
+      <c r="V38" s="261"/>
       <c r="W38" s="72">
         <f>AO68</f>
         <v>0</v>
       </c>
-      <c r="X38" s="236"/>
+      <c r="X38" s="282"/>
       <c r="Y38" s="6"/>
       <c r="Z38" s="6"/>
       <c r="AB38" s="78">
@@ -6843,26 +6872,26 @@
         <v>192</v>
       </c>
       <c r="K39" s="6"/>
-      <c r="L39" s="219" t="s">
+      <c r="L39" s="207" t="s">
         <v>102</v>
       </c>
-      <c r="M39" s="220"/>
+      <c r="M39" s="208"/>
       <c r="N39" s="131"/>
       <c r="O39" s="29"/>
-      <c r="P39" s="192"/>
-      <c r="Q39" s="192"/>
+      <c r="P39" s="198"/>
+      <c r="Q39" s="198"/>
       <c r="R39" s="6"/>
-      <c r="S39" s="239" t="s">
+      <c r="S39" s="261" t="s">
         <v>123</v>
       </c>
-      <c r="T39" s="239"/>
-      <c r="U39" s="239"/>
-      <c r="V39" s="239"/>
+      <c r="T39" s="261"/>
+      <c r="U39" s="261"/>
+      <c r="V39" s="261"/>
       <c r="W39" s="72">
         <f>AO75</f>
         <v>0</v>
       </c>
-      <c r="X39" s="236"/>
+      <c r="X39" s="282"/>
       <c r="Y39" s="6"/>
       <c r="Z39" s="6"/>
       <c r="AB39" s="82"/>
@@ -6897,36 +6926,36 @@
       </c>
     </row>
     <row r="40" spans="1:45" s="20" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B40" s="301" t="s">
+      <c r="B40" s="218" t="s">
         <v>195</v>
       </c>
-      <c r="C40" s="203"/>
-      <c r="D40" s="203"/>
-      <c r="E40" s="203"/>
-      <c r="F40" s="203"/>
-      <c r="G40" s="203"/>
-      <c r="H40" s="203"/>
+      <c r="C40" s="296"/>
+      <c r="D40" s="296"/>
+      <c r="E40" s="296"/>
+      <c r="F40" s="296"/>
+      <c r="G40" s="296"/>
+      <c r="H40" s="296"/>
       <c r="K40" s="6"/>
-      <c r="L40" s="221"/>
-      <c r="M40" s="222"/>
-      <c r="N40" s="278" t="s">
+      <c r="L40" s="187"/>
+      <c r="M40" s="188"/>
+      <c r="N40" s="246" t="s">
         <v>256</v>
       </c>
-      <c r="O40" s="279"/>
-      <c r="P40" s="230">
+      <c r="O40" s="206"/>
+      <c r="P40" s="259">
         <f>IF(SUM(P30:Q39)&lt;0,0,SUM(P30:Q39))</f>
         <v>0</v>
       </c>
-      <c r="Q40" s="230"/>
+      <c r="Q40" s="259"/>
       <c r="R40" s="6"/>
-      <c r="S40" s="246" t="s">
+      <c r="S40" s="268" t="s">
         <v>259</v>
       </c>
-      <c r="T40" s="247"/>
-      <c r="U40" s="247"/>
-      <c r="V40" s="248"/>
+      <c r="T40" s="269"/>
+      <c r="U40" s="269"/>
+      <c r="V40" s="270"/>
       <c r="W40" s="175"/>
-      <c r="X40" s="236"/>
+      <c r="X40" s="282"/>
       <c r="Y40" s="6"/>
       <c r="Z40" s="154" t="s">
         <v>219</v>
@@ -6963,24 +6992,24 @@
       </c>
     </row>
     <row r="41" spans="1:45" s="20" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B41" s="302"/>
-      <c r="C41" s="203"/>
-      <c r="D41" s="203"/>
-      <c r="E41" s="203"/>
-      <c r="F41" s="203"/>
-      <c r="G41" s="203"/>
-      <c r="H41" s="203"/>
+      <c r="B41" s="219"/>
+      <c r="C41" s="296"/>
+      <c r="D41" s="296"/>
+      <c r="E41" s="296"/>
+      <c r="F41" s="296"/>
+      <c r="G41" s="296"/>
+      <c r="H41" s="296"/>
       <c r="K41" s="6"/>
       <c r="R41" s="6"/>
-      <c r="S41" s="249"/>
-      <c r="T41" s="224"/>
-      <c r="U41" s="224"/>
-      <c r="V41" s="250"/>
+      <c r="S41" s="271"/>
+      <c r="T41" s="272"/>
+      <c r="U41" s="272"/>
+      <c r="V41" s="273"/>
       <c r="W41" s="50">
         <f>IF(10000000&gt;=I32,AM34+AM36,0)</f>
         <v>0</v>
       </c>
-      <c r="X41" s="236"/>
+      <c r="X41" s="282"/>
       <c r="Y41" s="6"/>
       <c r="Z41" s="158">
         <f>IF(Q59="対象",1,0)</f>
@@ -7014,27 +7043,27 @@
       </c>
     </row>
     <row r="42" spans="1:45" s="20" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B42" s="204" t="s">
+      <c r="B42" s="297" t="s">
         <v>191</v>
       </c>
-      <c r="C42" s="203"/>
-      <c r="D42" s="203"/>
-      <c r="E42" s="203"/>
-      <c r="F42" s="203"/>
-      <c r="G42" s="203"/>
-      <c r="H42" s="203"/>
+      <c r="C42" s="296"/>
+      <c r="D42" s="296"/>
+      <c r="E42" s="296"/>
+      <c r="F42" s="296"/>
+      <c r="G42" s="296"/>
+      <c r="H42" s="296"/>
       <c r="K42" s="6"/>
-      <c r="S42" s="239" t="s">
+      <c r="S42" s="261" t="s">
         <v>39</v>
       </c>
-      <c r="T42" s="239"/>
-      <c r="U42" s="239"/>
-      <c r="V42" s="239"/>
+      <c r="T42" s="261"/>
+      <c r="U42" s="261"/>
+      <c r="V42" s="261"/>
       <c r="W42" s="72">
         <f>AD9</f>
         <v>0</v>
       </c>
-      <c r="X42" s="236"/>
+      <c r="X42" s="282"/>
       <c r="Y42" s="6"/>
       <c r="Z42" s="158">
         <f>IF(Q60="対象",Z41+1,Z41)</f>
@@ -7068,13 +7097,13 @@
       </c>
     </row>
     <row r="43" spans="1:45" s="20" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B43" s="204"/>
-      <c r="C43" s="203"/>
-      <c r="D43" s="203"/>
-      <c r="E43" s="203"/>
-      <c r="F43" s="203"/>
-      <c r="G43" s="203"/>
-      <c r="H43" s="203"/>
+      <c r="B43" s="297"/>
+      <c r="C43" s="296"/>
+      <c r="D43" s="296"/>
+      <c r="E43" s="296"/>
+      <c r="F43" s="296"/>
+      <c r="G43" s="296"/>
+      <c r="H43" s="296"/>
       <c r="K43" s="105" t="s">
         <v>271</v>
       </c>
@@ -7084,17 +7113,17 @@
       <c r="O43" s="6"/>
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
-      <c r="S43" s="239" t="s">
+      <c r="S43" s="261" t="s">
         <v>40</v>
       </c>
-      <c r="T43" s="239"/>
-      <c r="U43" s="239"/>
-      <c r="V43" s="239"/>
+      <c r="T43" s="261"/>
+      <c r="U43" s="261"/>
+      <c r="V43" s="261"/>
       <c r="W43" s="72">
         <f>IF(O8="甲欄",380000,0)</f>
         <v>380000</v>
       </c>
-      <c r="X43" s="236"/>
+      <c r="X43" s="282"/>
       <c r="Z43" s="158">
         <f>IF(Q61="対象",Z42+1,Z42)</f>
         <v>0</v>
@@ -7127,13 +7156,13 @@
       </c>
     </row>
     <row r="44" spans="1:45" s="20" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B44" s="204"/>
-      <c r="C44" s="203"/>
-      <c r="D44" s="203"/>
-      <c r="E44" s="203"/>
-      <c r="F44" s="203"/>
-      <c r="G44" s="203"/>
-      <c r="H44" s="203"/>
+      <c r="B44" s="297"/>
+      <c r="C44" s="296"/>
+      <c r="D44" s="296"/>
+      <c r="E44" s="296"/>
+      <c r="F44" s="296"/>
+      <c r="G44" s="296"/>
+      <c r="H44" s="296"/>
       <c r="K44" s="129"/>
       <c r="L44" s="141"/>
       <c r="M44" s="135"/>
@@ -7141,21 +7170,21 @@
         <v>209</v>
       </c>
       <c r="O44" s="130"/>
-      <c r="P44" s="191" t="s">
+      <c r="P44" s="235" t="s">
         <v>210</v>
       </c>
-      <c r="Q44" s="191"/>
-      <c r="S44" s="251" t="s">
+      <c r="Q44" s="235"/>
+      <c r="S44" s="274" t="s">
         <v>143</v>
       </c>
-      <c r="T44" s="251"/>
-      <c r="U44" s="251"/>
-      <c r="V44" s="251"/>
+      <c r="T44" s="274"/>
+      <c r="U44" s="274"/>
+      <c r="V44" s="274"/>
       <c r="W44" s="72">
         <f>AD23</f>
         <v>0</v>
       </c>
-      <c r="X44" s="236"/>
+      <c r="X44" s="282"/>
       <c r="Z44" s="158">
         <f>IF(E65="",Z43,Z43+1)</f>
         <v>0</v>
@@ -7188,25 +7217,25 @@
       </c>
     </row>
     <row r="45" spans="1:45" s="20" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B45" s="296" t="s">
+      <c r="B45" s="203" t="s">
         <v>190</v>
       </c>
-      <c r="C45" s="298"/>
-      <c r="D45" s="271" t="s">
+      <c r="C45" s="204"/>
+      <c r="D45" s="202" t="s">
         <v>254</v>
       </c>
-      <c r="E45" s="271"/>
-      <c r="F45" s="206" t="s">
+      <c r="E45" s="202"/>
+      <c r="F45" s="298" t="s">
         <v>100</v>
       </c>
-      <c r="G45" s="206"/>
+      <c r="G45" s="298"/>
       <c r="H45" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K45" s="214" t="s">
+      <c r="K45" s="232" t="s">
         <v>167</v>
       </c>
-      <c r="L45" s="214"/>
+      <c r="L45" s="232"/>
       <c r="M45" s="133" t="s">
         <v>165</v>
       </c>
@@ -7214,19 +7243,19 @@
       <c r="O45" s="133" t="s">
         <v>163</v>
       </c>
-      <c r="P45" s="252"/>
-      <c r="Q45" s="252"/>
-      <c r="S45" s="245" t="s">
+      <c r="P45" s="191"/>
+      <c r="Q45" s="191"/>
+      <c r="S45" s="267" t="s">
         <v>41</v>
       </c>
-      <c r="T45" s="245"/>
-      <c r="U45" s="245"/>
-      <c r="V45" s="245"/>
+      <c r="T45" s="267"/>
+      <c r="U45" s="267"/>
+      <c r="V45" s="267"/>
       <c r="W45" s="100">
         <f>IF(O8="甲欄",SUM(W35:W44),"0")</f>
         <v>380000</v>
       </c>
-      <c r="X45" s="237"/>
+      <c r="X45" s="283"/>
       <c r="Z45" s="158">
         <f>IF(E66="",Z44,Z44+1)</f>
         <v>0</v>
@@ -7242,13 +7271,13 @@
       <c r="AK45" s="2"/>
     </row>
     <row r="46" spans="1:45" s="20" customFormat="1" ht="12.75" customHeight="1">
-      <c r="F46" s="205" t="s">
+      <c r="F46" s="224" t="s">
         <v>255</v>
       </c>
-      <c r="G46" s="205"/>
+      <c r="G46" s="224"/>
       <c r="H46" s="34"/>
-      <c r="K46" s="214"/>
-      <c r="L46" s="214"/>
+      <c r="K46" s="232"/>
+      <c r="L46" s="232"/>
       <c r="M46" s="134" t="s">
         <v>160</v>
       </c>
@@ -7256,16 +7285,16 @@
       <c r="O46" s="117" t="s">
         <v>168</v>
       </c>
-      <c r="P46" s="193" t="s">
+      <c r="P46" s="220" t="s">
         <v>168</v>
       </c>
-      <c r="Q46" s="193"/>
-      <c r="S46" s="240" t="s">
+      <c r="Q46" s="220"/>
+      <c r="S46" s="260" t="s">
         <v>42</v>
       </c>
-      <c r="T46" s="240"/>
-      <c r="U46" s="240"/>
-      <c r="V46" s="240"/>
+      <c r="T46" s="260"/>
+      <c r="U46" s="260"/>
+      <c r="V46" s="260"/>
       <c r="W46" s="85">
         <f>IF(W34-W45&lt;0,0,ROUNDDOWN(W34-W45,-3))</f>
         <v>0</v>
@@ -7283,10 +7312,10 @@
         <v/>
       </c>
       <c r="AB46" s="161"/>
-      <c r="AH46" s="231" t="s">
+      <c r="AH46" s="275" t="s">
         <v>103</v>
       </c>
-      <c r="AI46" s="232"/>
+      <c r="AI46" s="276"/>
       <c r="AJ46" s="86" t="s">
         <v>104</v>
       </c>
@@ -7302,8 +7331,8 @@
       <c r="B47" s="20" t="s">
         <v>186</v>
       </c>
-      <c r="K47" s="214"/>
-      <c r="L47" s="214"/>
+      <c r="K47" s="232"/>
+      <c r="L47" s="232"/>
       <c r="M47" s="133" t="s">
         <v>166</v>
       </c>
@@ -7311,15 +7340,15 @@
       <c r="O47" s="133" t="s">
         <v>164</v>
       </c>
-      <c r="P47" s="252"/>
-      <c r="Q47" s="252"/>
-      <c r="S47" s="239" t="s">
+      <c r="P47" s="191"/>
+      <c r="Q47" s="191"/>
+      <c r="S47" s="261" t="s">
         <v>131</v>
       </c>
-      <c r="T47" s="239"/>
-      <c r="U47" s="239"/>
-      <c r="V47" s="239"/>
-      <c r="W47" s="239"/>
+      <c r="T47" s="261"/>
+      <c r="U47" s="261"/>
+      <c r="V47" s="261"/>
+      <c r="W47" s="261"/>
       <c r="X47" s="41">
         <f>IF(F48=0,0,F48)</f>
         <v>0</v>
@@ -7344,20 +7373,20 @@
       <c r="B48" s="142" t="s">
         <v>187</v>
       </c>
-      <c r="C48" s="307" t="s">
+      <c r="C48" s="195" t="s">
         <v>197</v>
       </c>
-      <c r="D48" s="308"/>
-      <c r="E48" s="309"/>
-      <c r="F48" s="252"/>
-      <c r="G48" s="252"/>
+      <c r="D48" s="196"/>
+      <c r="E48" s="197"/>
+      <c r="F48" s="191"/>
+      <c r="G48" s="191"/>
       <c r="I48" s="96" t="s">
         <v>203</v>
       </c>
-      <c r="K48" s="215" t="s">
+      <c r="K48" s="290" t="s">
         <v>130</v>
       </c>
-      <c r="L48" s="216"/>
+      <c r="L48" s="291"/>
       <c r="M48" s="133" t="s">
         <v>122</v>
       </c>
@@ -7365,15 +7394,15 @@
       <c r="O48" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="P48" s="252"/>
-      <c r="Q48" s="252"/>
-      <c r="S48" s="239" t="s">
+      <c r="P48" s="191"/>
+      <c r="Q48" s="191"/>
+      <c r="S48" s="261" t="s">
         <v>180</v>
       </c>
-      <c r="T48" s="239"/>
-      <c r="U48" s="239"/>
-      <c r="V48" s="239"/>
-      <c r="W48" s="233"/>
+      <c r="T48" s="261"/>
+      <c r="U48" s="261"/>
+      <c r="V48" s="261"/>
+      <c r="W48" s="262"/>
       <c r="X48" s="121">
         <f>IF(X46-X47&lt;=0,0,X46-X47)</f>
         <v>0</v>
@@ -7398,42 +7427,42 @@
       </c>
     </row>
     <row r="49" spans="2:42" s="20" customFormat="1" ht="12.75" customHeight="1" thickBot="1">
-      <c r="B49" s="295" t="s">
+      <c r="B49" s="214" t="s">
         <v>16</v>
       </c>
-      <c r="C49" s="296" t="s">
+      <c r="C49" s="203" t="s">
         <v>200</v>
       </c>
-      <c r="D49" s="297"/>
-      <c r="E49" s="298"/>
-      <c r="F49" s="192" t="str">
+      <c r="D49" s="215"/>
+      <c r="E49" s="204"/>
+      <c r="F49" s="198" t="str">
         <f>IF(F48-MIN(X46:X47)=0,"",F48)</f>
         <v/>
       </c>
-      <c r="G49" s="192"/>
+      <c r="G49" s="198"/>
       <c r="H49" s="96" t="s">
         <v>204</v>
       </c>
       <c r="I49" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="K49" s="212" t="s">
+      <c r="K49" s="240" t="s">
         <v>129</v>
       </c>
-      <c r="L49" s="274"/>
-      <c r="M49" s="213"/>
-      <c r="N49" s="272" t="s">
+      <c r="L49" s="241"/>
+      <c r="M49" s="242"/>
+      <c r="N49" s="233" t="s">
         <v>80</v>
       </c>
-      <c r="O49" s="273"/>
-      <c r="P49" s="252"/>
-      <c r="Q49" s="252"/>
-      <c r="S49" s="233" t="s">
+      <c r="O49" s="234"/>
+      <c r="P49" s="191"/>
+      <c r="Q49" s="191"/>
+      <c r="S49" s="262" t="s">
         <v>182</v>
       </c>
-      <c r="T49" s="234"/>
-      <c r="U49" s="234"/>
-      <c r="V49" s="234"/>
+      <c r="T49" s="280"/>
+      <c r="U49" s="280"/>
+      <c r="V49" s="280"/>
       <c r="W49" s="122" t="s">
         <v>179</v>
       </c>
@@ -7465,39 +7494,39 @@
       </c>
     </row>
     <row r="50" spans="2:42" s="20" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B50" s="295"/>
-      <c r="C50" s="305" t="s">
+      <c r="B50" s="214"/>
+      <c r="C50" s="193" t="s">
         <v>196</v>
       </c>
-      <c r="D50" s="306"/>
+      <c r="D50" s="194"/>
       <c r="E50" s="143" t="s">
         <v>198</v>
       </c>
-      <c r="F50" s="303" t="s">
+      <c r="F50" s="199" t="s">
         <v>199</v>
       </c>
-      <c r="G50" s="303"/>
+      <c r="G50" s="199"/>
       <c r="H50" s="96" t="s">
         <v>202</v>
       </c>
       <c r="I50" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K50" s="275"/>
-      <c r="L50" s="276"/>
-      <c r="M50" s="277"/>
-      <c r="N50" s="212" t="s">
+      <c r="K50" s="243"/>
+      <c r="L50" s="244"/>
+      <c r="M50" s="245"/>
+      <c r="N50" s="240" t="s">
         <v>81</v>
       </c>
-      <c r="O50" s="213"/>
-      <c r="P50" s="252"/>
-      <c r="Q50" s="252"/>
-      <c r="S50" s="233" t="s">
+      <c r="O50" s="242"/>
+      <c r="P50" s="191"/>
+      <c r="Q50" s="191"/>
+      <c r="S50" s="262" t="s">
         <v>44</v>
       </c>
-      <c r="T50" s="234"/>
-      <c r="U50" s="234"/>
-      <c r="V50" s="234"/>
+      <c r="T50" s="280"/>
+      <c r="U50" s="280"/>
+      <c r="V50" s="280"/>
       <c r="W50" s="124" t="str">
         <f>IF(X50&gt;=0,"［ 超過 ］","［ 不足］")</f>
         <v>［ 超過 ］</v>
@@ -7524,28 +7553,28 @@
       <c r="B51" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="C51" s="207"/>
-      <c r="D51" s="207"/>
+      <c r="C51" s="192"/>
+      <c r="D51" s="192"/>
       <c r="E51" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="252"/>
-      <c r="G51" s="252"/>
+      <c r="F51" s="191"/>
+      <c r="G51" s="191"/>
       <c r="H51" s="96" t="s">
         <v>205</v>
       </c>
       <c r="I51" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="K51" s="214" t="s">
+      <c r="K51" s="232" t="s">
         <v>82</v>
       </c>
-      <c r="L51" s="214"/>
-      <c r="M51" s="214"/>
-      <c r="N51" s="214"/>
-      <c r="O51" s="214"/>
-      <c r="P51" s="252"/>
-      <c r="Q51" s="252"/>
+      <c r="L51" s="232"/>
+      <c r="M51" s="232"/>
+      <c r="N51" s="232"/>
+      <c r="O51" s="232"/>
+      <c r="P51" s="191"/>
+      <c r="Q51" s="191"/>
       <c r="AD51" s="2"/>
       <c r="AH51" s="87"/>
       <c r="AI51" s="87"/>
@@ -7556,13 +7585,13 @@
       <c r="B52" s="63" t="s">
         <v>194</v>
       </c>
-      <c r="C52" s="207"/>
-      <c r="D52" s="207"/>
+      <c r="C52" s="192"/>
+      <c r="D52" s="192"/>
       <c r="E52" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="252"/>
-      <c r="G52" s="252"/>
+      <c r="F52" s="191"/>
+      <c r="G52" s="191"/>
       <c r="H52" s="96" t="s">
         <v>206</v>
       </c>
@@ -7575,10 +7604,10 @@
       <c r="U52" s="107"/>
       <c r="V52" s="107"/>
       <c r="AD52" s="2"/>
-      <c r="AH52" s="231" t="s">
+      <c r="AH52" s="275" t="s">
         <v>107</v>
       </c>
-      <c r="AI52" s="232"/>
+      <c r="AI52" s="276"/>
       <c r="AJ52" s="86" t="s">
         <v>104</v>
       </c>
@@ -7722,18 +7751,18 @@
       <c r="AP57" s="25"/>
     </row>
     <row r="58" spans="2:42" s="20" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B58" s="221" t="s">
+      <c r="B58" s="187" t="s">
         <v>243</v>
       </c>
-      <c r="C58" s="222"/>
-      <c r="D58" s="286" t="s">
+      <c r="C58" s="188"/>
+      <c r="D58" s="189" t="s">
         <v>147</v>
       </c>
-      <c r="E58" s="202"/>
-      <c r="F58" s="267" t="s">
+      <c r="E58" s="190"/>
+      <c r="F58" s="185" t="s">
         <v>185</v>
       </c>
-      <c r="G58" s="268"/>
+      <c r="G58" s="186"/>
       <c r="H58" s="16" t="s">
         <v>183</v>
       </c>
@@ -7749,10 +7778,10 @@
       <c r="L58" s="162" t="s">
         <v>244</v>
       </c>
-      <c r="M58" s="201" t="s">
+      <c r="M58" s="258" t="s">
         <v>7</v>
       </c>
-      <c r="N58" s="202"/>
+      <c r="N58" s="190"/>
       <c r="O58" s="44" t="s">
         <v>117</v>
       </c>
@@ -7793,7 +7822,7 @@
       <c r="AP58" s="25"/>
     </row>
     <row r="59" spans="2:42" s="20" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B59" s="288" t="str">
+      <c r="B59" s="209" t="str">
         <f>+B20</f>
         <v>(H16.1.1以前生)</v>
       </c>
@@ -7816,8 +7845,8 @@
       <c r="L59" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="M59" s="189"/>
-      <c r="N59" s="190"/>
+      <c r="M59" s="228"/>
+      <c r="N59" s="229"/>
       <c r="O59" s="29"/>
       <c r="P59" s="48" t="s">
         <v>16</v>
@@ -7859,7 +7888,7 @@
       <c r="AP59" s="25"/>
     </row>
     <row r="60" spans="2:42" s="20" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B60" s="289"/>
+      <c r="B60" s="210"/>
       <c r="C60" s="37" t="s">
         <v>213</v>
       </c>
@@ -7879,8 +7908,8 @@
       <c r="L60" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="M60" s="189"/>
-      <c r="N60" s="190"/>
+      <c r="M60" s="228"/>
+      <c r="N60" s="229"/>
       <c r="O60" s="29"/>
       <c r="P60" s="148" t="s">
         <v>16</v>
@@ -7908,7 +7937,7 @@
       </c>
     </row>
     <row r="61" spans="2:42" s="20" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B61" s="290"/>
+      <c r="B61" s="211"/>
       <c r="C61" s="37" t="s">
         <v>214</v>
       </c>
@@ -7928,8 +7957,8 @@
       <c r="L61" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="M61" s="189"/>
-      <c r="N61" s="190"/>
+      <c r="M61" s="228"/>
+      <c r="N61" s="229"/>
       <c r="O61" s="29"/>
       <c r="P61" s="48" t="s">
         <v>16</v>
@@ -8016,18 +8045,18 @@
       <c r="AP63" s="25"/>
     </row>
     <row r="64" spans="2:42" s="20" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B64" s="299" t="s">
+      <c r="B64" s="216" t="s">
         <v>242</v>
       </c>
-      <c r="C64" s="300"/>
-      <c r="D64" s="286" t="s">
+      <c r="C64" s="217"/>
+      <c r="D64" s="189" t="s">
         <v>147</v>
       </c>
-      <c r="E64" s="202"/>
-      <c r="F64" s="267" t="s">
+      <c r="E64" s="190"/>
+      <c r="F64" s="185" t="s">
         <v>185</v>
       </c>
-      <c r="G64" s="268"/>
+      <c r="G64" s="186"/>
       <c r="H64" s="16" t="s">
         <v>183</v>
       </c>
@@ -8043,10 +8072,10 @@
       <c r="L64" s="162" t="s">
         <v>244</v>
       </c>
-      <c r="M64" s="201" t="s">
+      <c r="M64" s="258" t="s">
         <v>7</v>
       </c>
-      <c r="N64" s="202"/>
+      <c r="N64" s="190"/>
       <c r="O64" s="44" t="s">
         <v>117</v>
       </c>
@@ -8092,7 +8121,7 @@
       <c r="AP64" s="25"/>
     </row>
     <row r="65" spans="2:43" s="20" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B65" s="288" t="str">
+      <c r="B65" s="209" t="str">
         <f>+B26</f>
         <v>(H16.1.2以後生)</v>
       </c>
@@ -8115,8 +8144,8 @@
       <c r="L65" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="M65" s="189"/>
-      <c r="N65" s="190"/>
+      <c r="M65" s="228"/>
+      <c r="N65" s="229"/>
       <c r="O65" s="29"/>
       <c r="P65" s="48" t="s">
         <v>16</v>
@@ -8163,7 +8192,7 @@
       <c r="AP65" s="25"/>
     </row>
     <row r="66" spans="2:43" s="20" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B66" s="289"/>
+      <c r="B66" s="210"/>
       <c r="C66" s="37" t="s">
         <v>217</v>
       </c>
@@ -8183,8 +8212,8 @@
       <c r="L66" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="M66" s="189"/>
-      <c r="N66" s="190"/>
+      <c r="M66" s="228"/>
+      <c r="N66" s="229"/>
       <c r="O66" s="29"/>
       <c r="P66" s="48" t="s">
         <v>16</v>
@@ -8214,7 +8243,7 @@
       <c r="AP66" s="25"/>
     </row>
     <row r="67" spans="2:43" s="20" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B67" s="290"/>
+      <c r="B67" s="211"/>
       <c r="C67" s="37" t="s">
         <v>218</v>
       </c>
@@ -8234,8 +8263,8 @@
       <c r="L67" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="M67" s="189"/>
-      <c r="N67" s="190"/>
+      <c r="M67" s="228"/>
+      <c r="N67" s="229"/>
       <c r="O67" s="29"/>
       <c r="P67" s="48" t="s">
         <v>16</v>
@@ -8778,142 +8807,6 @@
   </protectedRanges>
   <dataConsolidate/>
   <mergeCells count="164">
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C48:E48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="B65:B67"/>
-    <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:E49"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="B9:B13"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K10:L10"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:L38"/>
-    <mergeCell ref="K51:O51"/>
-    <mergeCell ref="M67:N67"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M59:N59"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M65:N65"/>
-    <mergeCell ref="M66:N66"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O8:O10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="K49:M50"/>
-    <mergeCell ref="N40:O40"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="P40:Q40"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="P50:Q50"/>
-    <mergeCell ref="S46:V46"/>
-    <mergeCell ref="U36:V36"/>
-    <mergeCell ref="S38:V38"/>
-    <mergeCell ref="P44:Q44"/>
-    <mergeCell ref="P45:Q45"/>
-    <mergeCell ref="S33:V33"/>
-    <mergeCell ref="S48:W48"/>
-    <mergeCell ref="S35:T37"/>
-    <mergeCell ref="U35:V35"/>
-    <mergeCell ref="S47:W47"/>
-    <mergeCell ref="S45:V45"/>
-    <mergeCell ref="S42:V42"/>
-    <mergeCell ref="S40:V41"/>
-    <mergeCell ref="S43:V43"/>
-    <mergeCell ref="S44:V44"/>
-    <mergeCell ref="U37:V37"/>
-    <mergeCell ref="AH52:AI52"/>
-    <mergeCell ref="AH46:AI46"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="S50:V50"/>
-    <mergeCell ref="X34:X45"/>
-    <mergeCell ref="S32:V32"/>
-    <mergeCell ref="S39:V39"/>
-    <mergeCell ref="S34:V34"/>
-    <mergeCell ref="S49:V49"/>
-    <mergeCell ref="AA23:AC23"/>
-    <mergeCell ref="S10:S23"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="S24:S28"/>
-    <mergeCell ref="T23:U23"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="P46:Q46"/>
-    <mergeCell ref="K45:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="L32:L33"/>
-    <mergeCell ref="P38:Q39"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="P33:Q33"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="I36:J36"/>
     <mergeCell ref="I37:J37"/>
@@ -8930,18 +8823,154 @@
     <mergeCell ref="N50:O50"/>
     <mergeCell ref="C40:H41"/>
     <mergeCell ref="F48:G48"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="D33:E33"/>
     <mergeCell ref="G34:G35"/>
     <mergeCell ref="H34:H35"/>
     <mergeCell ref="G36:G37"/>
     <mergeCell ref="H36:H37"/>
-    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="AA23:AC23"/>
+    <mergeCell ref="S10:S23"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="S24:S28"/>
+    <mergeCell ref="T23:U23"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="L32:L33"/>
+    <mergeCell ref="P33:Q33"/>
     <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G31:H31"/>
     <mergeCell ref="I31:J31"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
+    <mergeCell ref="AH52:AI52"/>
+    <mergeCell ref="AH46:AI46"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="S50:V50"/>
+    <mergeCell ref="X34:X45"/>
+    <mergeCell ref="S32:V32"/>
+    <mergeCell ref="S39:V39"/>
+    <mergeCell ref="S34:V34"/>
+    <mergeCell ref="S49:V49"/>
+    <mergeCell ref="S38:V38"/>
+    <mergeCell ref="P44:Q44"/>
+    <mergeCell ref="P45:Q45"/>
+    <mergeCell ref="S33:V33"/>
+    <mergeCell ref="S48:W48"/>
+    <mergeCell ref="S35:T37"/>
+    <mergeCell ref="U35:V35"/>
+    <mergeCell ref="S47:W47"/>
+    <mergeCell ref="S45:V45"/>
+    <mergeCell ref="S42:V42"/>
+    <mergeCell ref="S40:V41"/>
+    <mergeCell ref="S43:V43"/>
+    <mergeCell ref="S44:V44"/>
+    <mergeCell ref="U37:V37"/>
+    <mergeCell ref="P46:Q46"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="P38:Q39"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O8:O10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="K49:M50"/>
+    <mergeCell ref="N40:O40"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="P40:Q40"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="P50:Q50"/>
+    <mergeCell ref="S46:V46"/>
+    <mergeCell ref="U36:V36"/>
+    <mergeCell ref="M67:N67"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M59:N59"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M65:N65"/>
+    <mergeCell ref="M66:N66"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="K45:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K10:L10"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:L38"/>
+    <mergeCell ref="K51:O51"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="B9:B13"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="E13:G13"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="B65:B67"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:E49"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations xWindow="464" yWindow="361" count="22">
